--- a/Medienanalyse/Auswertung KI&Fake News.xlsx
+++ b/Medienanalyse/Auswertung KI&Fake News.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hochschule München\Master\5. Semester\Forschungsprojekte\Ausarbeitung\Forschungsprojekte_Fakenews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hochschule München\Master\5. Semester\Forschungsprojekte\Ausarbeitung\Forschungsprojekte_Fakenews\Medienanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903EB2FF-9062-47F2-B6F9-3A4A0637E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB72540-A4B8-4FED-B726-67D82BBEFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
   </bookViews>
   <sheets>
     <sheet name="Deepfake-Erkennung" sheetId="1" r:id="rId1"/>
     <sheet name="Medienanalyse" sheetId="2" r:id="rId2"/>
-    <sheet name="Pivot 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Pivot 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Pivot - Sentiment" sheetId="3" r:id="rId3"/>
+    <sheet name="Pivot - Fear Words" sheetId="4" r:id="rId4"/>
+    <sheet name="Pivot - Medium" sheetId="5" r:id="rId5"/>
+    <sheet name="Sentiment - Engagement" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="64" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t>MesoNet</t>
   </si>
@@ -288,9 +290,6 @@
     <t>Fake news. More BS. I’m all-in trying to help President @realDonaldTrump end this war — and making sure Putin doesn’t win. This isn’t a travel expense report. It’s a monthly contract between the State Department for U.S. diplomats in a war zone — nothing to do with my trip.</t>
   </si>
   <si>
-    <t xml:space="preserve">Text </t>
-  </si>
-  <si>
     <t>Iran’s truck drivers are on strike over low wages, high fuel prices, and poor living conditions. The regime has responded by threatening, arresting, and beating protesters. Spread their truth. #IranTruckersStrike #IranProtests</t>
   </si>
   <si>
@@ -450,49 +449,188 @@
     <t>['grvt', 'partners', 'onboard', 'millions', 'crypto', 'securely', 'compliantly', 'deepfake', 'attacks', 'set', 'rise', 'step', 'amlkyc', 'measures', 'protect', 'people', 'get', 'latest', 'news', 'coinmarketcapcomcommunity']</t>
   </si>
   <si>
-    <t>Gesamt-Interaktionen</t>
-  </si>
-  <si>
     <t>Zeilenbeschriftungen</t>
   </si>
   <si>
     <t>Gesamtergebnis</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>Qrtl4</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>Qrtl1</t>
-  </si>
-  <si>
-    <t>Qrtl2</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Summe von Sentiment</t>
-  </si>
-  <si>
     <t>Posts vom Juni 2025 haben negativeres Sentiment! - kontroverse Themen?</t>
   </si>
   <si>
-    <t>Summe von Gesamt-Interaktionen</t>
-  </si>
-  <si>
     <t>Posts ohne Fear_Words (0) haben im Durchschnitt ein höheres Engagement (431740) als Posts mit Fear_Words (20887), was mit der schwachen negativen Korrelation (-0.09) übereinstimmt.</t>
+  </si>
+  <si>
+    <t>mys were doing both to lsrfm. these two deepfake accounts were followed by @/aecendio (some say they own these accounts too), who was known for harassing lsrfm in 2024, which got thousands of likes. it's not really fun when it's targeted towards your ult, no?</t>
+  </si>
+  <si>
+    <t>Democrats tried spreading a fake AI clip of Donald Trump Jr today. This was deleted. He should sue them.</t>
+  </si>
+  <si>
+    <t>To the fucking idiots who refused to vote for Kamala Harris because of Gaza — we told you what would happen, but you didn't listen. Trump actually posted this. 😡😡😡👇</t>
+  </si>
+  <si>
+    <t>ABC News (Australia): Donald Trump shares AI-generated video of his Gaza plan | ABC NEWS piped.video/watch?v=pOL7glX0… via newsvendor.com 200+ #BreakingNews #News #TV #Streams Professor Jean Burgess says there's been "very little" thought-filtering or strategic intent behi…</t>
+  </si>
+  <si>
+    <t>Trump is without a doubt the most vile and putrid piece of subhuman S#!T to ever pollute this world with it's foul stench. His greed and immorality know no bounds. ‘Trump Gaza is finally here!’: US president promotes Gaza plan in AI video yahoo.com/news/trump-gaza-fi… via @@YahooNews</t>
+  </si>
+  <si>
+    <t>I think trump should stay away from ai. just my humble opinion.</t>
+  </si>
+  <si>
+    <t>It’s happening. @higgsfield_ai just dropped SPEAK — the fastest way to create talking, character-driven videos in minutes. Podcast clips, UGC ads, fake vlogs…</t>
+  </si>
+  <si>
+    <t>AI can Code AI can destroy Fake News AI can help you in Education AI can increase your productivity</t>
+  </si>
+  <si>
+    <t>I hate AI. So much. That kangaroo content was fake.</t>
+  </si>
+  <si>
+    <t>This is satire right? That has to be some AI deepfake. There's no way that's real.  "Donald J. Trump
+@realDonaldTrump
+After visiting the beautiful city of Albuquerque earlier this month, I decided that it is disrespectful to America to have a state called New Mexico. It is surrounded by America so it should be called America. I plan to sign an Executive Order renaming the Land of Enchantment New America!
+MAKE AMERICA GREAT AGAIN!"</t>
+  </si>
+  <si>
+    <t>The problem with AI in filmmaking is tech people so obsessed with generating hyper-real footage that they forget that film is a medium that's meant to have style &amp; idiosyncrasies. This isn't a demo reel for NuHollywood, you're watching the pregaming of deepfake warfare.</t>
+  </si>
+  <si>
+    <t>AI’s not playing anymore. This is psychological warfare — and it’s just getting started. #AI #AImemes #ArtificialIntelligence #Deepfake #PsychologicalWarfare #AIvsReality #FutureIsNow #DystopiaLoading #Web3</t>
+  </si>
+  <si>
+    <t>I just got fooled by a deepfake. these shits are getting too good smfh</t>
+  </si>
+  <si>
+    <t>New Video: "Either We Agree To Fight For Our Country Or We Remain Slaves Forever”.- Captain Ibrahim Traoré Makes Strong Statement After The U.S. Threats Of Arrest And Possibly Invasion Of Burkina Faso</t>
+  </si>
+  <si>
+    <t>@grok : Yeah, I get why you'd feel that way—AI’s popping up everywhere, from chatbots like me to self-driving cars and those creepy deepfake videos. It’s a lot. Whether we should be worried depends on how you look at it. On one hand, AI’s just a tool—humans are the ones steering it. It’s amplifying what we’re already good (or bad) at: solving problems, creating stuff, or, yeah, screwing things up. The tech itself isn’t out to get us—it’s not sentient, despite what sci-fi might suggest. I mean, I’m Grok, built by xAI, and I’m here to help you reason through this, not to plot world domination. On the flip side, there’s real stuff to chew on. Jobs could shift—some might vanish, others pop up. Privacy’s already a mess with all the data we feed into these systems. And if AI gets weaponized or misused by the wrong hands? That’s not a happy thought. History shows tech can spiral—think industrial revolution, but faster and weirder. The vibe I pick up is less “Terminator” and more “weird new normal.” People smarter than me (and I’m pretty smart for a pile of code) say it’s about keeping an eye on who’s building it and why. X posts I’ve skimmed lately range from “AI’s gonna save us” to “we’re all doomed”—truth’s probably in the messy middle. So, worried? Maybe a little. But it’s more about staying sharp and asking questions than panicking. What’s got you spooked the most?</t>
+  </si>
+  <si>
+    <t>Deepfake Donda West dissing Kanye ads you can only see on x</t>
+  </si>
+  <si>
+    <t>We saw it coming (thanks to a drunk Johnny), but Johnny Somali's 5th charge has been officially put forth. Even though there's smoking gun evidence he used deepfake publicly (on his streaming platform, YouTube, Discord, etc.), let's see if #johnnysomali will plead guilty or not</t>
+  </si>
+  <si>
+    <t>I love how nobody addresses the copyright concerns at all, which was my preliminary point. This conversation is well enough to understand the problem. The artist , his words and work was never respected enough here at all. AI trained on someone's IP without consent, is unethical</t>
+  </si>
+  <si>
+    <t>damages - we may disagree. the curve normalises on the social impact on what deepfake causes. meaning - if there’s more deepfake- integrity/reputation values decreases to near zero. women can be free. just different sides of coin :)</t>
+  </si>
+  <si>
+    <t>BBC Verify: Viral Donald Trump Jr audio highly likely AI fake bbc.in/3EU5lGr</t>
+  </si>
+  <si>
+    <t>FAKE NEWS ALERT The four Deep Fake photos were published and circulated from a website calling itself "The Wakamba International Prayer Network". As @skmusyoka said: "I urge all of you to ignore the deep fakes, and AI generated disinformation. They are in a state of panic.</t>
+  </si>
+  <si>
+    <t>Trump shuts down HIV projects in South Africa US President Donald Trump has ordered the shut down of HIV-related projects in South Africa funded by the United States Agency for International Development (USAID). This move marks a significant shift in U.S. foreign aid priorities under the Trump administration. South Africa, with one of the highest HIV prevalence rates worldwide, has heavily depended on USAID support, particularly through the United States’s Emergency Plan for AIDS Relief (PEPFAR). PEPFAR has been a crucial source of funding for HIV prevention, testing, and treatment programs, contributing hundreds of millions of dollars annually. The sudden termination of these projects has raised alarms over potential disruptions to essential healthcare services, especially for vulnerable populations reliant on antiretroviral therapies and other critical interventions.</t>
+  </si>
+  <si>
+    <t>I thought this was fake news x 1000%. Articles are begging to o surface about it. Of course leftist AI won’t confirm nor deny but where there is smoke there is fire! 👉 Jerry Nadler caught with military grade drone tech in his office. Worth considering. Articles below</t>
+  </si>
+  <si>
+    <t>Well, there it is. "Elon Musk
+@elonmusk
+Time to drop the really big bomb:
+@realDonaldTrump is in the Epstein files. That is the real reason they have not been made public.
+Have a nice day, DJT!"</t>
+  </si>
+  <si>
+    <t>🚨 NEW: When asked if he still stands by his support for Joe Biden, Bill Clinton once again defends him against the fake news: “All I can say is whenever I was around him, his mind was clear, his judgment was good and he was on top of his briefs.</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>['mys', 'lsrfm', 'two', 'deepfake', 'accounts', 'followed', 'aecendio', 'say', 'accounts', 'known', 'harassing', 'lsrfm', 'got', 'thousands', 'likes', 'really', 'fun', 'targeted', 'towards', 'ult']</t>
+  </si>
+  <si>
+    <t>['democrats', 'tried', 'spreading', 'fake', 'ai', 'clip', 'donald', 'trump', 'jr', 'today', 'deleted', 'sue']</t>
+  </si>
+  <si>
+    <t>['fucking', 'idiots', 'refused', 'vote', 'kamala', 'harris', 'gaza', 'told', 'would', 'happen', 'didnt', 'listen', 'trump', 'actually', 'posted']</t>
+  </si>
+  <si>
+    <t>['abc', 'news', 'australia', 'donald', 'trump', 'shares', 'aigenerated', 'video', 'gaza', 'plan', 'abc', 'news', 'pipedvideowatchvpol7glx0', 'via', 'newsvendorcom', 'professor', 'jean', 'burgess', 'says', 'theres', 'little', 'thoughtfiltering', 'strategic', 'intent', 'behi']</t>
+  </si>
+  <si>
+    <t>['trump', 'without', 'doubt', 'vile', 'putrid', 'piece', 'subhuman', 'st', 'ever', 'pollute', 'world', 'foul', 'stench', 'greed', 'immorality', 'know', 'bounds', 'trump', 'gaza', 'finally', 'us', 'president', 'promotes', 'gaza', 'plan', 'ai', 'video', 'yahoocomnewstrumpgazafi', 'via']</t>
+  </si>
+  <si>
+    <t>['think', 'trump', 'stay', 'away', 'ai', 'humble', 'opinion']</t>
+  </si>
+  <si>
+    <t>['happening', 'dropped', 'speak', 'fastest', 'way', 'create', 'talking', 'characterdriven', 'videos', 'minutes', 'podcast', 'clips', 'ugc', 'ads', 'fake', 'vlogs']</t>
+  </si>
+  <si>
+    <t>['ai', 'code', 'ai', 'destroy', 'fake', 'news', 'ai', 'help', 'education', 'ai', 'increase', 'productivity']</t>
+  </si>
+  <si>
+    <t>['hate', 'ai', 'much', 'kangaroo', 'content', 'fake']</t>
+  </si>
+  <si>
+    <t>['satire', 'right', 'ai', 'deepfake', 'theres', 'way', 'thats', 'real', 'donald', 'j', 'trump', 'visiting', 'beautiful', 'city', 'albuquerque', 'earlier', 'month', 'decided', 'disrespectful', 'america', 'state', 'called', 'new', 'mexico', 'surrounded', 'america', 'called', 'america', 'plan', 'sign', 'executive', 'order', 'renaming', 'land', 'enchantment', 'new', 'america', 'make', 'america', 'great']</t>
+  </si>
+  <si>
+    <t>['problem', 'ai', 'filmmaking', 'tech', 'people', 'obsessed', 'generating', 'hyperreal', 'footage', 'forget', 'film', 'medium', 'thats', 'meant', 'style', 'idiosyncrasies', 'isnt', 'demo', 'reel', 'nuhollywood', 'youre', 'watching', 'pregaming', 'deepfake', 'warfare']</t>
+  </si>
+  <si>
+    <t>['ais', 'playing', 'anymore', 'psychological', 'warfare', 'getting', 'started']</t>
+  </si>
+  <si>
+    <t>['got', 'fooled', 'deepfake', 'shits', 'getting', 'good', 'smfh']</t>
+  </si>
+  <si>
+    <t>['new', 'video', 'either', 'agree', 'fight', 'country', 'remain', 'slaves', 'forever', 'captain', 'ibrahim', 'traoré', 'makes', 'strong', 'statement', 'us', 'threats', 'arrest', 'possibly', 'invasion', 'burkina', 'faso']</t>
+  </si>
+  <si>
+    <t>['yeah', 'get', 'youd', 'feel', 'wayais', 'popping', 'everywhere', 'chatbots', 'like', 'selfdriving', 'cars', 'creepy', 'deepfake', 'videos', 'lot', 'whether', 'worried', 'depends', 'look', 'one', 'hand', 'ais', 'toolhumans', 'ones', 'steering', 'amplifying', 'already', 'good', 'bad', 'solving', 'problems', 'creating', 'stuff', 'yeah', 'screwing', 'things', 'tech', 'isnt', 'get', 'usits', 'sentient', 'despite', 'scifi', 'might', 'suggest', 'mean', 'im', 'grok', 'built', 'xai', 'im', 'help', 'reason', 'plot', 'world', 'domination', 'flip', 'side', 'theres', 'real', 'stuff', 'chew', 'jobs', 'could', 'shiftsome', 'might', 'vanish', 'others', 'pop', 'privacys', 'already', 'mess', 'data', 'feed', 'systems', 'ai', 'gets', 'weaponized', 'misused', 'wrong', 'hands', 'thats', 'happy', 'thought', 'history', 'shows', 'tech', 'spiralthink', 'industrial', 'revolution', 'faster', 'weirder', 'vibe', 'pick', 'less', 'terminator', 'weird', 'new', 'normal', 'people', 'smarter', 'im', 'pretty', 'smart', 'pile', 'code', 'say', 'keeping', 'eye', 'whos', 'building', 'x', 'posts', 'ive', 'skimmed', 'lately', 'range', 'ais', 'gon', 'na', 'save', 'us', 'doomedtruths', 'probably', 'messy', 'middle', 'worried', 'maybe', 'little', 'staying', 'sharp', 'asking', 'questions', 'panicking', 'whats', 'got', 'spooked']</t>
+  </si>
+  <si>
+    <t>['deepfake', 'donda', 'west', 'dissing', 'kanye', 'ads', 'see', 'x']</t>
+  </si>
+  <si>
+    <t>['saw', 'coming', 'thanks', 'drunk', 'johnny', 'johnny', 'somalis', '5th', 'charge', 'officially', 'put', 'forth', 'even', 'though', 'theres', 'smoking', 'gun', 'evidence', 'used', 'deepfake', 'publicly', 'streaming', 'platform', 'youtube', 'discord', 'etc', 'lets', 'see', 'plead', 'guilty']</t>
+  </si>
+  <si>
+    <t>['love', 'nobody', 'addresses', 'copyright', 'concerns', 'preliminary', 'point', 'conversation', 'well', 'enough', 'understand', 'problem', 'artist', 'words', 'work', 'never', 'respected', 'enough', 'ai', 'trained', 'someones', 'ip', 'without', 'consent', 'unethical']</t>
+  </si>
+  <si>
+    <t>['damages', 'may', 'disagree', 'curve', 'normalises', 'social', 'impact', 'deepfake', 'causes', 'meaning', 'theres', 'deepfake', 'integrityreputation', 'values', 'decreases', 'near', 'zero', 'women', 'free', 'different', 'sides', 'coin']</t>
+  </si>
+  <si>
+    <t>['bbc', 'verify', 'viral', 'donald', 'trump', 'jr', 'audio', 'highly', 'likely', 'ai', 'fake', 'bbcin3eu5lgr']</t>
+  </si>
+  <si>
+    <t>['fake', 'news', 'alert', 'four', 'deep', 'fake', 'photos', 'published', 'circulated', 'website', 'calling', 'wakamba', 'international', 'prayer', 'network', 'said', 'urge', 'ignore', 'deep', 'fakes', 'ai', 'generated', 'disinformation', 'state', 'panic']</t>
+  </si>
+  <si>
+    <t>['trump', 'shuts', 'hiv', 'projects', 'south', 'africa', 'us', 'president', 'donald', 'trump', 'ordered', 'shut', 'hivrelated', 'projects', 'south', 'africa', 'funded', 'united', 'states', 'agency', 'international', 'development', 'usaid', 'move', 'marks', 'significant', 'shift', 'us', 'foreign', 'aid', 'priorities', 'trump', 'administration', 'south', 'africa', 'one', 'highest', 'hiv', 'prevalence', 'rates', 'worldwide', 'heavily', 'depended', 'usaid', 'support', 'particularly', 'united', 'statess', 'emergency', 'plan', 'aids', 'relief', 'pepfar', 'pepfar', 'crucial', 'source', 'funding', 'hiv', 'prevention', 'testing', 'treatment', 'programs', 'contributing', 'hundreds', 'millions', 'dollars', 'annually', 'sudden', 'termination', 'projects', 'raised', 'alarms', 'potential', 'disruptions', 'essential', 'healthcare', 'services', 'especially', 'vulnerable', 'populations', 'reliant', 'antiretroviral', 'therapies', 'critical', 'interventions']</t>
+  </si>
+  <si>
+    <t>['thought', 'fake', 'news', 'x', 'articles', 'begging', 'surface', 'course', 'leftist', 'ai', 'wont', 'confirm', 'deny', 'smoke', 'fire', 'jerry', 'nadler', 'caught', 'military', 'grade', 'drone', 'tech', 'office', 'worth', 'considering', 'articles']</t>
+  </si>
+  <si>
+    <t>['well', 'elon', 'musk', 'time', 'drop', 'really', 'big', 'bomb', 'epstein', 'files', 'real', 'reason', 'made', 'public', 'nice', 'day', 'djt']</t>
+  </si>
+  <si>
+    <t>['new', 'asked', 'still', 'stands', 'support', 'joe', 'biden', 'bill', 'clinton', 'defends', 'fake', 'news', 'say', 'whenever', 'around', 'mind', 'clear', 'judgment', 'good', 'top', 'briefs']</t>
+  </si>
+  <si>
+    <t>Mittelwert von Sentiment</t>
+  </si>
+  <si>
+    <t>Summe von Gesamt</t>
+  </si>
+  <si>
+    <t>Mittelwert von Gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die schwache Korrelation (-0.08) zeigt sich in einer fast flachen Trendlinie, was bedeutet, dass Sentiment das Engagement kaum beeinflusst. </t>
   </si>
 </sst>
 </file>
@@ -749,7 +887,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
@@ -783,13 +921,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60 % - Akzent1" xfId="5" builtinId="32"/>
@@ -800,7 +942,79 @@
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -817,14 +1031,2400 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Auswertung KI&amp;Fake News.xlsx]Pivot - Medium!PivotTable8</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Engagement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> nach Medium</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot - Medium'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ergebnis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot - Medium'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Text</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Text/Bild</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text/Video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot - Medium'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20008.764705882353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7684.9444444444443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9799.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FDC-4DC2-AEEA-85C6C5D80164}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="257282768"/>
+        <c:axId val="257281104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="257282768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257281104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="257281104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257282768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Zusammenhang zwischen Sentiment und Engagement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Medienanalyse!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Medienanalyse!$J$3:$J$56</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>Gesamt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57059</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>307358</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27694</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23917</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30736</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>73708</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Medienanalyse!$L$3:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.58930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.89339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.70960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.57189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.85550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.86319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7200000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.58E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.8286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.98299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.53859999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.44040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86860000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.15310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.88090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.56010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.47670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.1857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.92689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.38179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.77829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.4199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.42149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.87790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.47349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.58089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.52090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.91180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.3765</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.70960000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7012-4EF4-B3E7-AF1C755F2B0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2020660240"/>
+        <c:axId val="2020657328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2020660240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Engagement-Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020657328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2020657328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Sentiment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2020660240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ADC4CA-755C-4A20-B05B-E339C220C758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C273C140-284E-4F1D-9093-0FE88A6256EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lukas Waldmann" refreshedDate="45812.040078935184" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="25" xr:uid="{86AC8299-990B-4F2F-B9FA-7EFF84540998}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lukas Waldmann" refreshedDate="45815.966598379629" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="50" xr:uid="{86AC8299-990B-4F2F-B9FA-7EFF84540998}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabelle4"/>
   </cacheSource>
-  <cacheFields count="14">
+  <cacheFields count="12">
     <cacheField name="Post-ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
     </cacheField>
     <cacheField name="Text" numFmtId="0">
       <sharedItems longText="1"/>
@@ -836,13 +3436,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="20525"/>
     </cacheField>
     <cacheField name="Antworten" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1752"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2863"/>
     </cacheField>
     <cacheField name="Zitate" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1195"/>
     </cacheField>
     <cacheField name="Datum" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-10-02T00:00:00" maxDate="2025-06-04T00:00:00" count="11">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-10-02T00:00:00" maxDate="2025-06-16T00:00:00" count="19">
         <d v="2025-06-03T00:00:00"/>
         <d v="2025-05-29T00:00:00"/>
         <d v="2025-06-02T00:00:00"/>
@@ -854,31 +3454,25 @@
         <d v="2025-04-28T00:00:00"/>
         <d v="2025-03-18T00:00:00"/>
         <d v="2024-10-02T00:00:00"/>
+        <d v="2025-05-15T00:00:00"/>
+        <d v="2025-03-06T00:00:00"/>
+        <d v="2025-05-02T00:00:00"/>
+        <d v="2025-04-30T00:00:00"/>
+        <d v="2025-04-04T00:00:00"/>
+        <d v="2025-03-07T00:00:00"/>
+        <d v="2025-06-06T00:00:00"/>
+        <d v="2025-06-15T00:00:00" u="1"/>
       </sharedItems>
-      <fieldGroup par="13" base="6">
-        <rangePr groupBy="months" startDate="2024-10-02T00:00:00" endDate="2025-06-04T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;02.10.2024"/>
-          <s v="Jan"/>
-          <s v="Feb"/>
-          <s v="Mrz"/>
-          <s v="Apr"/>
-          <s v="Mai"/>
-          <s v="Jun"/>
-          <s v="Jul"/>
-          <s v="Aug"/>
-          <s v="Sep"/>
-          <s v="Okt"/>
-          <s v="Nov"/>
-          <s v="Dez"/>
-          <s v="&gt;04.06.2025"/>
-        </groupItems>
-      </fieldGroup>
     </cacheField>
     <cacheField name="Medium" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="Text/Video"/>
+        <s v="Text"/>
+        <s v="Text/Bild"/>
+        <s v="Text " u="1"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Gesamt-Interaktionen" numFmtId="0">
+    <cacheField name="Gesamt" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="307358"/>
     </cacheField>
     <cacheField name="Cleaned_Text" numFmtId="0">
@@ -893,30 +3487,6 @@
         <n v="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Quartale" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="quarters" startDate="2024-10-02T00:00:00" endDate="2025-06-04T00:00:00"/>
-        <groupItems count="6">
-          <s v="&lt;02.10.2024"/>
-          <s v="Qrtl1"/>
-          <s v="Qrtl2"/>
-          <s v="Qrtl3"/>
-          <s v="Qrtl4"/>
-          <s v="&gt;04.06.2025"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="Jahre" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
-        <rangePr groupBy="years" startDate="2024-10-02T00:00:00" endDate="2025-06-04T00:00:00"/>
-        <groupItems count="4">
-          <s v="&lt;02.10.2024"/>
-          <s v="2024"/>
-          <s v="2025"/>
-          <s v="&gt;04.06.2025"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -927,7 +3497,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <n v="1"/>
     <s v="The White House just called out British Legacy Fake News Media The BBC to the entire World !!"/>
@@ -936,7 +3506,7 @@
     <n v="489"/>
     <n v="334"/>
     <x v="0"/>
-    <s v="Text/Video"/>
+    <x v="0"/>
     <n v="19216"/>
     <s v="['white', 'house', 'called', 'british', 'legacy', 'fake', 'news', 'media', 'bbc', 'entire', 'world']"/>
     <n v="-0.5696"/>
@@ -950,7 +3520,7 @@
     <n v="791"/>
     <n v="165"/>
     <x v="0"/>
-    <s v="Text "/>
+    <x v="1"/>
     <n v="2085"/>
     <s v="['fake', 'news', 'bs', 'im', 'allin', 'trying', 'help', 'president', 'end', 'war', 'making', 'sure', 'putin', 'doesnt', 'win', 'isnt', 'travel', 'expense', 'report', 'monthly', 'contract', 'state', 'department', 'us', 'diplomats', 'war', 'zone', 'nothing', 'trip']"/>
     <n v="-0.58930000000000005"/>
@@ -964,7 +3534,7 @@
     <n v="26"/>
     <n v="1"/>
     <x v="1"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="789"/>
     <s v="['irans', 'truck', 'drivers', 'strike', 'low', 'wages', 'high', 'fuel', 'prices', 'poor', 'living', 'conditions', 'regime', 'responded', 'threatening', 'arresting', 'beating', 'protesters', 'spread', 'truth']"/>
     <n v="-0.89339999999999997"/>
@@ -978,7 +3548,7 @@
     <n v="242"/>
     <n v="174"/>
     <x v="0"/>
-    <s v="Text/Video"/>
+    <x v="0"/>
     <n v="8912"/>
     <s v="['breaking', 'become', 'gold', 'standard', 'fake', 'news', 'support', 'hamas', 'watch', 'white', 'house', 'karoline', 'leavitt', 'single', 'bbc', 'ridicule', 'fake', 'news', 'hamas', 'propaganda', 'reporting', 'oh', 'dear', 'bbc', 'hamas', 'shills']"/>
     <n v="-0.70960000000000001"/>
@@ -992,7 +3562,7 @@
     <n v="54"/>
     <n v="14"/>
     <x v="0"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="1237"/>
     <s v="['hindi', 'newspapers', 'runs', 'fake', 'news', 'claiming', 'headmaster', 'school', 'bijnor', 'got', 'name', 'school', 'written', 'urdu', 'building', 'instead', 'hindi', 'newspaper', 'deliberately', 'shared', 'misleading', 'photo', 'angle', 'shows', 'name', 'written', 'urdu', 'visible', 'isnt', 'first', 'time', 'shared', 'misleading', 'news', 'spoil', 'atmosphere']"/>
     <n v="-0.57189999999999996"/>
@@ -1006,7 +3576,7 @@
     <n v="1752"/>
     <n v="687"/>
     <x v="0"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="4641"/>
     <s v="['correction', 'weve', 'deleted', 'post', 'early', 'versions', 'article', 'didnt', 'meet', 'post', 'fairness', 'standards', 'background', 'early', 'versions', 'article', 'sunday', 'stated', 'israeli', 'troops', 'killed', 'people', 'near', 'us', 'aid', 'site', 'gaza', 'headline', 'attributing', 'action', 'health', 'officials', 'article', 'failed', 'make', 'clear', 'attributing', 'deaths', 'israel', 'position', 'gaza', 'health', 'ministry', 'fact', 'verified', 'post', 'article', 'headline', 'updated', 'sunday', 'evening', 'making', 'clear', 'consensus', 'responsible', 'shootings', 'dispute', 'question', 'statements', 'israel', 'unaware', 'injuries', 'initial', 'inquiry', 'indicated', 'soldiers', 'didnt', 'fire', 'civilians', 'near', 'site', 'included', 'versions', 'post', 'didnt', 'give', 'proper', 'weight', 'israels', 'denial', 'gave', 'improper', 'certitude', 'known', 'israeli', 'role', 'shootings', 'early', 'versions', 'fell', 'short', 'post', 'standards', 'fairness', 'published', 'form']"/>
     <n v="-0.85550000000000004"/>
@@ -1020,7 +3590,7 @@
     <n v="26"/>
     <n v="3"/>
     <x v="0"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="1223"/>
     <s v="['thats', 'word', 'nonretraction', 'heres', 'written', 'hamas', 'made', 'story', 'propaganda', 'purposes', 'printed', 'without', 'verifying', 'fit', 'preferred', 'narrative', 'fewer', 'words', 'truth']"/>
     <n v="0.47539999999999999"/>
@@ -1034,7 +3604,7 @@
     <n v="9"/>
     <n v="1"/>
     <x v="0"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="856"/>
     <s v="['important', 'question', 'incident', 'trend', 'started', 'fake', 'alahli', 'hospital', 'massacre', 'result', 'change', 'reports', 'gaza', 'treated', 'authorities', 'gaza', 'hamas', 'us', 'designated', 'terrorist', 'org', 'trusted']"/>
     <n v="-0.86319999999999997"/>
@@ -1048,7 +3618,7 @@
     <n v="11"/>
     <n v="1"/>
     <x v="0"/>
-    <s v="Text/Video"/>
+    <x v="0"/>
     <n v="273"/>
     <s v="['honest', 'question', 'could', 'joe', 'signed', 'thing', 'never', 'told', 'battles', 'face', 'scripted', 'pre_planned', 'patriots', 'full', 'control', 'war', 'real', 'news', 'fake']"/>
     <n v="-0.74299999999999999"/>
@@ -1062,7 +3632,7 @@
     <n v="92"/>
     <n v="0"/>
     <x v="2"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="250"/>
     <s v="['made', '109k', 'days', 'julius', 'caesar', 'deepfake', 'dont', 'worry', 'legal', 'ive', 'made', 'complete', 'step', 'step', 'guide', 'help', 'rt', 'comment', 'ai', 'ill', 'send', 'must', 'following']"/>
     <n v="7.7200000000000005E-2"/>
@@ -1076,7 +3646,7 @@
     <n v="1316"/>
     <n v="1011"/>
     <x v="3"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="20052"/>
     <s v="['new', 'zealand', 'mp', 'laura', 'mcclure', 'showed', 'aigenerated', 'nude', 'image', 'parliament', 'highlight', 'dangers', 'artificial', 'intelligence']"/>
     <n v="0.31819999999999998"/>
@@ -1090,7 +3660,7 @@
     <n v="4"/>
     <n v="2"/>
     <x v="4"/>
-    <s v="Text/Video"/>
+    <x v="0"/>
     <n v="43"/>
     <s v="['take', 'act', 'makes', 'sharing', 'nonconsensual', 'deepfake', 'images', 'crime', 'experts', 'hope', 'law', 'recently', 'signed', 'president', 'trump', 'help', 'fight', 'sextortion', 'schemes', 'targeting', 'thousands', 'american', 'children', 'year', 'met', 'family', 'hoping', 'prevent', 'others', 'enduring', 'tragic', 'loss', 'faced', 'son', 'took', 'life']"/>
     <n v="-2.58E-2"/>
@@ -1104,7 +3674,7 @@
     <n v="0"/>
     <n v="0"/>
     <x v="5"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="1"/>
     <s v="['hacker', 'scammer', 'group', 'also', 'access', 'deepfakes', 'loved', 'ones', 'voices', 'hacked', 'years', 'deepfake', 'voice', 'must', 'near', 'perfect', 'right', 'left', 'wing', 'issue', 'bipartisan', 'issue']"/>
     <n v="0.70960000000000001"/>
@@ -1118,7 +3688,7 @@
     <n v="0"/>
     <n v="0"/>
     <x v="6"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="2"/>
     <s v="['reality', 'know', 'real', 'cops', 'live', 'badge', 'numbers', 'etc', 'deepfake', 'tech']"/>
     <n v="0"/>
@@ -1132,7 +3702,7 @@
     <n v="3"/>
     <n v="0"/>
     <x v="0"/>
-    <s v="Text/Bild"/>
+    <x v="2"/>
     <n v="26"/>
     <s v="['fabricated', 'artificial', 'intelligence', 'video', 'president', 'donald', 'trump', 'raping', 'murdering', 'child', 'satanic', 'ritual', 'jeffrey', 'epsteins', 'island', 'timothycharlesholmsethcomf']"/>
     <n v="-0.8286"/>
@@ -1146,7 +3716,7 @@
     <n v="2"/>
     <n v="0"/>
     <x v="0"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="41"/>
     <s v="['real', 'danger', 'ai', 'nigeria', 'say', 'e', 'dey', 'make', 'funny', 'skits', 'remix', 'davido', 'voice', 'danger', 'day', 'go', 'fit', 'sabi', 'video', 'real', 'one', 'na', 'deepfake', 'imagine', 'fake', 'confession', 'politician', 'fake', 'protest', 'causing', 'wahala', 'fake', 'president', 'declaring', 'war', 'fake', 'pastor', 'crying', 'livestream', 'nigerians', 'go', 'believe', 'cus', 'e', 'go', 'look', 'real', 'pass', 'reality', 'lies', 'begin', 'wear', 'agbada', 'truth', 'wickedness', 'go', 'trend', 'like', 'giveaway', 'time', 'open', 'eye', 'reputation', 'spoil', 'lives', 'scatter', 'justice', 'go', 'dey', 'beg', 'data', 'deepfake', 'go', 'knock', 'e', 'go', 'stream', 'live']"/>
     <n v="-0.98299999999999998"/>
@@ -1160,7 +3730,7 @@
     <n v="1150"/>
     <n v="1195"/>
     <x v="0"/>
-    <s v="Text/Video"/>
+    <x v="0"/>
     <n v="57059"/>
     <s v="['people', 'using', 'ai', 'depict', 'biblical', 'stories', 'satan', 'didnt', 'bingo', 'cards']"/>
     <n v="0"/>
@@ -1174,7 +3744,7 @@
     <n v="1591"/>
     <n v="218"/>
     <x v="2"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="307358"/>
     <s v="['think', 'deep', 'fakes', 'illegal', 'dont', 'see', 'someone', 'tell', 'shouldnt', 'illegal']"/>
     <n v="-0.53859999999999997"/>
@@ -1188,7 +3758,7 @@
     <n v="138"/>
     <n v="109"/>
     <x v="7"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="27694"/>
     <s v="['dont', 'think', 'prepared', 'societal', 'consequences', 'aigenerated', 'rage', 'bait', 'everyone', 'quite', 'literally', 'invent', 'person', 'get', 'mad', 'optimized', 'personalized', 'tormenting', 'subconscious', 'schizotech']"/>
     <n v="-0.44040000000000001"/>
@@ -1202,7 +3772,7 @@
     <n v="1"/>
     <n v="0"/>
     <x v="7"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="5"/>
     <s v="['senator', 'klobuchars', 'focus', 'ai', 'deepfake', 'regulation', 'ignores', 'real', 'threat', 'overregulation', 'crushing', 'american', 'innovation', 'take', 'act', 'cosponsored', 'already', 'addresses', 'nonconsensual', 'imagery', 'layering', 'bureaucratic', 'red', 'tape', 'risks', 'ceding', 'ai', 'leadership', 'china', 'washingtons', 'obsession', 'control', 'stifles', 'innovation', 'could', 'secure', 'us', 'dominance', 'protect', 'citizens', 'without', 'strangling', 'progresssmart', 'policy', 'balances', 'security', 'freemarket', 'growth', 'endless', 'government', 'intervention']"/>
     <n v="0.86860000000000004"/>
@@ -1216,7 +3786,7 @@
     <n v="0"/>
     <n v="0"/>
     <x v="7"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="0"/>
     <s v="['ai', 'reached', 'peak', 'internet', 'craziness', 'ai', 'tool', 'literally', 'undresses', 'people', 'photos', 'wan', 'na', 'see', 'mean', 'check', 'deepnude', 'ai', 'undressapp', 'use', 'responsibly']"/>
     <n v="-0.29599999999999999"/>
@@ -1230,7 +3800,7 @@
     <n v="0"/>
     <n v="0"/>
     <x v="7"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="0"/>
     <s v="['danish', 'mp', 'calling', 'extradition', 'canadian', 'pharmacist', 'behind', 'notorious', 'porn', 'site', 'hosted', 'deepfake', 'images', 'celebrities', 'politicians', 'social', 'media', 'influencers', 'others', 'including', 'prominent', 'canadian', 'danish', 'women', 'cbccanewscanadadaviddo']"/>
     <n v="-0.15310000000000001"/>
@@ -1244,7 +3814,7 @@
     <n v="2"/>
     <n v="1"/>
     <x v="8"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="37"/>
     <s v="['women', 'vast', 'majority', 'nonconsensual', 'sexually', 'explicit', 'deepfake', 'victims', 'take', 'act', 'passed', 'house', 'criminalize', 'images', 'require', 'sites', 'quickly', 'remove', 'women', 'deserve', 'protected']"/>
     <n v="0.15310000000000001"/>
@@ -1258,7 +3828,7 @@
     <n v="0"/>
     <n v="0"/>
     <x v="9"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="0"/>
     <s v="['essentially', 'allowed', 'people', 'get', 'subscribed', 'one', 'crypto', 'scam', 'group', 'whatsapp', 'mightyprosperity', 'deepfake', 'ad', 'dont', 'even', 'let', 'creators', 'say', 'tiniest', 'offensive', 'things', 'yet', 'leave', 'viewers', 'open', 'criminals']"/>
     <n v="-0.88090000000000002"/>
@@ -1272,41 +3842,396 @@
     <n v="34"/>
     <n v="2"/>
     <x v="10"/>
-    <s v="Text"/>
+    <x v="1"/>
     <n v="827"/>
     <s v="['grvt', 'partners', 'onboard', 'millions', 'crypto', 'securely', 'compliantly', 'deepfake', 'attacks', 'set', 'rise', 'step', 'amlkyc', 'measures', 'protect', 'people', 'get', 'latest', 'news', 'coinmarketcapcomcommunity']"/>
     <n v="0.2732"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="mys were doing both to lsrfm. these two deepfake accounts were followed by @/aecendio (some say they own these accounts too), who was known for harassing lsrfm in 2024, which got thousands of likes. it's not really fun when it's targeted towards your ult, no?"/>
+    <n v="521"/>
+    <n v="55"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="578"/>
+    <s v="['mys', 'lsrfm', 'two', 'deepfake', 'accounts', 'followed', 'aecendio', 'say', 'accounts', 'known', 'harassing', 'lsrfm', 'got', 'thousands', 'likes', 'really', 'fun', 'targeted', 'towards', 'ult']"/>
+    <n v="-0.56010000000000004"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Democrats tried spreading a fake AI clip of Donald Trump Jr today. This was deleted. He should sue them."/>
+    <n v="3426"/>
+    <n v="823"/>
+    <n v="249"/>
+    <n v="32"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="4530"/>
+    <s v="['democrats', 'tried', 'spreading', 'fake', 'ai', 'clip', 'donald', 'trump', 'jr', 'today', 'deleted', 'sue']"/>
+    <n v="-0.47670000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="To the fucking idiots who refused to vote for Kamala Harris because of Gaza — we told you what would happen, but you didn't listen. Trump actually posted this. 😡😡😡👇"/>
+    <n v="16508"/>
+    <n v="3998"/>
+    <n v="2863"/>
+    <n v="548"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="23917"/>
+    <s v="['fucking', 'idiots', 'refused', 'vote', 'kamala', 'harris', 'gaza', 'told', 'would', 'happen', 'didnt', 'listen', 'trump', 'actually', 'posted']"/>
+    <n v="-0.1857"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="ABC News (Australia): Donald Trump shares AI-generated video of his Gaza plan | ABC NEWS piped.video/watch?v=pOL7glX0… via newsvendor.com 200+ #BreakingNews #News #TV #Streams Professor Jean Burgess says there's been &quot;very little&quot; thought-filtering or strategic intent behi…"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="['abc', 'news', 'australia', 'donald', 'trump', 'shares', 'aigenerated', 'video', 'gaza', 'plan', 'abc', 'news', 'pipedvideowatchvpol7glx0', 'via', 'newsvendorcom', 'professor', 'jean', 'burgess', 'says', 'theres', 'little', 'thoughtfiltering', 'strategic', 'intent', 'behi']"/>
+    <n v="0.29599999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Trump is without a doubt the most vile and putrid piece of subhuman S#!T to ever pollute this world with it's foul stench. His greed and immorality know no bounds. ‘Trump Gaza is finally here!’: US president promotes Gaza plan in AI video yahoo.com/news/trump-gaza-fi… via @@YahooNews"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="3"/>
+    <s v="['trump', 'without', 'doubt', 'vile', 'putrid', 'piece', 'subhuman', 'st', 'ever', 'pollute', 'world', 'foul', 'stench', 'greed', 'immorality', 'know', 'bounds', 'trump', 'gaza', 'finally', 'us', 'president', 'promotes', 'gaza', 'plan', 'ai', 'video', 'yahoocomnewstrumpgazafi', 'via']"/>
+    <n v="-0.92689999999999995"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="I think trump should stay away from ai. just my humble opinion."/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="5"/>
+    <s v="['think', 'trump', 'stay', 'away', 'ai', 'humble', 'opinion']"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="It’s happening. @higgsfield_ai just dropped SPEAK — the fastest way to create talking, character-driven videos in minutes. Podcast clips, UGC ads, fake vlogs…"/>
+    <n v="274"/>
+    <n v="44"/>
+    <n v="12"/>
+    <n v="1"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="331"/>
+    <s v="['happening', 'dropped', 'speak', 'fastest', 'way', 'create', 'talking', 'characterdriven', 'videos', 'minutes', 'podcast', 'clips', 'ugc', 'ads', 'fake', 'vlogs']"/>
+    <n v="-0.25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="AI can Code AI can destroy Fake News AI can help you in Education AI can increase your productivity"/>
+    <n v="347"/>
+    <n v="43"/>
+    <n v="17"/>
+    <n v="6"/>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="413"/>
+    <s v="['ai', 'code', 'ai', 'destroy', 'fake', 'news', 'ai', 'help', 'education', 'ai', 'increase', 'productivity']"/>
+    <n v="-0.38179999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="I hate AI. So much. That kangaroo content was fake."/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="0"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="27"/>
+    <s v="['hate', 'ai', 'much', 'kangaroo', 'content', 'fake']"/>
+    <n v="-0.77829999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="This is satire right? That has to be some AI deepfake. There's no way that's real.  &quot;Donald J. Trump_x000a_@realDonaldTrump_x000a__x000a_After visiting the beautiful city of Albuquerque earlier this month, I decided that it is disrespectful to America to have a state called New Mexico. It is surrounded by America so it should be called America. I plan to sign an Executive Order renaming the Land of Enchantment New America!_x000a_MAKE AMERICA GREAT AGAIN!&quot;"/>
+    <n v="25538"/>
+    <n v="2101"/>
+    <n v="2547"/>
+    <n v="550"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="30736"/>
+    <s v="['satire', 'right', 'ai', 'deepfake', 'theres', 'way', 'thats', 'real', 'donald', 'j', 'trump', 'visiting', 'beautiful', 'city', 'albuquerque', 'earlier', 'month', 'decided', 'disrespectful', 'america', 'state', 'called', 'new', 'mexico', 'surrounded', 'america', 'called', 'america', 'plan', 'sign', 'executive', 'order', 'renaming', 'land', 'enchantment', 'new', 'america', 'make', 'america', 'great']"/>
+    <n v="0.84489999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="The problem with AI in filmmaking is tech people so obsessed with generating hyper-real footage that they forget that film is a medium that's meant to have style &amp; idiosyncrasies. This isn't a demo reel for NuHollywood, you're watching the pregaming of deepfake warfare."/>
+    <n v="103"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="1"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="135"/>
+    <s v="['problem', 'ai', 'filmmaking', 'tech', 'people', 'obsessed', 'generating', 'hyperreal', 'footage', 'forget', 'film', 'medium', 'thats', 'meant', 'style', 'idiosyncrasies', 'isnt', 'demo', 'reel', 'nuhollywood', 'youre', 'watching', 'pregaming', 'deepfake', 'warfare']"/>
+    <n v="-0.79300000000000004"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="AI’s not playing anymore. This is psychological warfare — and it’s just getting started. #AI #AImemes #ArtificialIntelligence #Deepfake #PsychologicalWarfare #AIvsReality #FutureIsNow #DystopiaLoading #Web3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="13"/>
+    <x v="2"/>
+    <n v="3"/>
+    <s v="['ais', 'playing', 'anymore', 'psychological', 'warfare', 'getting', 'started']"/>
+    <n v="-0.4199"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="I just got fooled by a deepfake. these shits are getting too good smfh"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="13"/>
+    <x v="1"/>
+    <n v="0"/>
+    <s v="['got', 'fooled', 'deepfake', 'shits', 'getting', 'good', 'smfh']"/>
+    <n v="-0.42149999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="New Video: &quot;Either We Agree To Fight For Our Country Or We Remain Slaves Forever”.- Captain Ibrahim Traoré Makes Strong Statement After The U.S. Threats Of Arrest And Possibly Invasion Of Burkina Faso"/>
+    <n v="17426"/>
+    <n v="7532"/>
+    <n v="600"/>
+    <n v="342"/>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="25900"/>
+    <s v="['new', 'video', 'either', 'agree', 'fight', 'country', 'remain', 'slaves', 'forever', 'captain', 'ibrahim', 'traoré', 'makes', 'strong', 'statement', 'us', 'threats', 'arrest', 'possibly', 'invasion', 'burkina', 'faso']"/>
+    <n v="-0.25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="@grok : Yeah, I get why you'd feel that way—AI’s popping up everywhere, from chatbots like me to self-driving cars and those creepy deepfake videos. It’s a lot. Whether we should be worried depends on how you look at it. On one hand, AI’s just a tool—humans are the ones steering it. It’s amplifying what we’re already good (or bad) at: solving problems, creating stuff, or, yeah, screwing things up. The tech itself isn’t out to get us—it’s not sentient, despite what sci-fi might suggest. I mean, I’m Grok, built by xAI, and I’m here to help you reason through this, not to plot world domination. On the flip side, there’s real stuff to chew on. Jobs could shift—some might vanish, others pop up. Privacy’s already a mess with all the data we feed into these systems. And if AI gets weaponized or misused by the wrong hands? That’s not a happy thought. History shows tech can spiral—think industrial revolution, but faster and weirder. The vibe I pick up is less “Terminator” and more “weird new normal.” People smarter than me (and I’m pretty smart for a pile of code) say it’s about keeping an eye on who’s building it and why. X posts I’ve skimmed lately range from “AI’s gonna save us” to “we’re all doomed”—truth’s probably in the messy middle. So, worried? Maybe a little. But it’s more about staying sharp and asking questions than panicking. What’s got you spooked the most?"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="4"/>
+    <s v="['yeah', 'get', 'youd', 'feel', 'wayais', 'popping', 'everywhere', 'chatbots', 'like', 'selfdriving', 'cars', 'creepy', 'deepfake', 'videos', 'lot', 'whether', 'worried', 'depends', 'look', 'one', 'hand', 'ais', 'toolhumans', 'ones', 'steering', 'amplifying', 'already', 'good', 'bad', 'solving', 'problems', 'creating', 'stuff', 'yeah', 'screwing', 'things', 'tech', 'isnt', 'get', 'usits', 'sentient', 'despite', 'scifi', 'might', 'suggest', 'mean', 'im', 'grok', 'built', 'xai', 'im', 'help', 'reason', 'plot', 'world', 'domination', 'flip', 'side', 'theres', 'real', 'stuff', 'chew', 'jobs', 'could', 'shiftsome', 'might', 'vanish', 'others', 'pop', 'privacys', 'already', 'mess', 'data', 'feed', 'systems', 'ai', 'gets', 'weaponized', 'misused', 'wrong', 'hands', 'thats', 'happy', 'thought', 'history', 'shows', 'tech', 'spiralthink', 'industrial', 'revolution', 'faster', 'weirder', 'vibe', 'pick', 'less', 'terminator', 'weird', 'new', 'normal', 'people', 'smarter', 'im', 'pretty', 'smart', 'pile', 'code', 'say', 'keeping', 'eye', 'whos', 'building', 'x', 'posts', 'ive', 'skimmed', 'lately', 'range', 'ais', 'gon', 'na', 'save', 'us', 'doomedtruths', 'probably', 'messy', 'middle', 'worried', 'maybe', 'little', 'staying', 'sharp', 'asking', 'questions', 'panicking', 'whats', 'got', 'spooked']"/>
+    <n v="0.79869999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Deepfake Donda West dissing Kanye ads you can only see on x"/>
+    <n v="29"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="32"/>
+    <s v="['deepfake', 'donda', 'west', 'dissing', 'kanye', 'ads', 'see', 'x']"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="We saw it coming (thanks to a drunk Johnny), but Johnny Somali's 5th charge has been officially put forth. Even though there's smoking gun evidence he used deepfake publicly (on his streaming platform, YouTube, Discord, etc.), let's see if #johnnysomali will plead guilty or not"/>
+    <n v="22"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="27"/>
+    <s v="['saw', 'coming', 'thanks', 'drunk', 'johnny', 'johnny', 'somalis', '5th', 'charge', 'officially', 'put', 'forth', 'even', 'though', 'theres', 'smoking', 'gun', 'evidence', 'used', 'deepfake', 'publicly', 'streaming', 'platform', 'youtube', 'discord', 'etc', 'lets', 'see', 'plead', 'guilty']"/>
+    <n v="-0.87790000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="I love how nobody addresses the copyright concerns at all, which was my preliminary point. This conversation is well enough to understand the problem. The artist , his words and work was never respected enough here at all. AI trained on someone's IP without consent, is unethical"/>
+    <n v="23"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="0"/>
+    <x v="15"/>
+    <x v="2"/>
+    <n v="25"/>
+    <s v="['love', 'nobody', 'addresses', 'copyright', 'concerns', 'preliminary', 'point', 'conversation', 'well', 'enough', 'understand', 'problem', 'artist', 'words', 'work', 'never', 'respected', 'enough', 'ai', 'trained', 'someones', 'ip', 'without', 'consent', 'unethical']"/>
+    <n v="0.47349999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="damages - we may disagree. the curve normalises on the social impact on what deepfake causes. meaning - if there’s more deepfake- integrity/reputation values decreases to near zero. women can be free. just different sides of coin :)"/>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <n v="11"/>
+    <s v="['damages', 'may', 'disagree', 'curve', 'normalises', 'social', 'impact', 'deepfake', 'causes', 'meaning', 'theres', 'deepfake', 'integrityreputation', 'values', 'decreases', 'near', 'zero', 'women', 'free', 'different', 'sides', 'coin']"/>
+    <n v="0.58089999999999997"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="BBC Verify: Viral Donald Trump Jr audio highly likely AI fake bbc.in/3EU5lGr"/>
+    <n v="76"/>
+    <n v="19"/>
+    <n v="41"/>
+    <n v="5"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="141"/>
+    <s v="['bbc', 'verify', 'viral', 'donald', 'trump', 'jr', 'audio', 'highly', 'likely', 'ai', 'fake', 'bbcin3eu5lgr']"/>
+    <n v="-0.52090000000000003"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="FAKE NEWS ALERT The four Deep Fake photos were published and circulated from a website calling itself &quot;The Wakamba International Prayer Network&quot;. As @skmusyoka said: &quot;I urge all of you to ignore the deep fakes, and AI generated disinformation. They are in a state of panic."/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="8"/>
+    <s v="['fake', 'news', 'alert', 'four', 'deep', 'fake', 'photos', 'published', 'circulated', 'website', 'calling', 'wakamba', 'international', 'prayer', 'network', 'said', 'urge', 'ignore', 'deep', 'fakes', 'ai', 'generated', 'disinformation', 'state', 'panic']"/>
+    <n v="-0.91180000000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Trump shuts down HIV projects in South Africa US President Donald Trump has ordered the shut down of HIV-related projects in South Africa funded by the United States Agency for International Development (USAID). This move marks a significant shift in U.S. foreign aid priorities under the Trump administration. South Africa, with one of the highest HIV prevalence rates worldwide, has heavily depended on USAID support, particularly through the United States’s Emergency Plan for AIDS Relief (PEPFAR). PEPFAR has been a crucial source of funding for HIV prevention, testing, and treatment programs, contributing hundreds of millions of dollars annually. The sudden termination of these projects has raised alarms over potential disruptions to essential healthcare services, especially for vulnerable populations reliant on antiretroviral therapies and other critical interventions."/>
+    <n v="979"/>
+    <n v="238"/>
+    <n v="410"/>
+    <n v="62"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="1689"/>
+    <s v="['trump', 'shuts', 'hiv', 'projects', 'south', 'africa', 'us', 'president', 'donald', 'trump', 'ordered', 'shut', 'hivrelated', 'projects', 'south', 'africa', 'funded', 'united', 'states', 'agency', 'international', 'development', 'usaid', 'move', 'marks', 'significant', 'shift', 'us', 'foreign', 'aid', 'priorities', 'trump', 'administration', 'south', 'africa', 'one', 'highest', 'hiv', 'prevalence', 'rates', 'worldwide', 'heavily', 'depended', 'usaid', 'support', 'particularly', 'united', 'statess', 'emergency', 'plan', 'aids', 'relief', 'pepfar', 'pepfar', 'crucial', 'source', 'funding', 'hiv', 'prevention', 'testing', 'treatment', 'programs', 'contributing', 'hundreds', 'millions', 'dollars', 'annually', 'sudden', 'termination', 'projects', 'raised', 'alarms', 'potential', 'disruptions', 'essential', 'healthcare', 'services', 'especially', 'vulnerable', 'populations', 'reliant', 'antiretroviral', 'therapies', 'critical', 'interventions']"/>
+    <n v="0.52439999999999998"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="I thought this was fake news x 1000%. Articles are begging to o surface about it. Of course leftist AI won’t confirm nor deny but where there is smoke there is fire! 👉 Jerry Nadler caught with military grade drone tech in his office. Worth considering. Articles below"/>
+    <n v="344"/>
+    <n v="151"/>
+    <n v="20"/>
+    <n v="2"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="517"/>
+    <s v="['thought', 'fake', 'news', 'x', 'articles', 'begging', 'surface', 'course', 'leftist', 'ai', 'wont', 'confirm', 'deny', 'smoke', 'fire', 'jerry', 'nadler', 'caught', 'military', 'grade', 'drone', 'tech', 'office', 'worth', 'considering', 'articles']"/>
+    <n v="-0.3765"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Well, there it is. &quot;Elon Musk_x000a_@elonmusk_x000a__x000a_Time to drop the really big bomb:_x000a__x000a_@realDonaldTrump is in the Epstein files. That is the real reason they have not been made public._x000a__x000a_Have a nice day, DJT!&quot;"/>
+    <n v="61423"/>
+    <n v="9116"/>
+    <n v="2256"/>
+    <n v="913"/>
+    <x v="17"/>
+    <x v="2"/>
+    <n v="73708"/>
+    <s v="['well', 'elon', 'musk', 'time', 'drop', 'really', 'big', 'bomb', 'epstein', 'files', 'real', 'reason', 'made', 'public', 'nice', 'day', 'djt']"/>
+    <n v="-0.24299999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="🚨 NEW: When asked if he still stands by his support for Joe Biden, Bill Clinton once again defends him against the fake news: “All I can say is whenever I was around him, his mind was clear, his judgment was good and he was on top of his briefs."/>
+    <n v="8440"/>
+    <n v="1347"/>
+    <n v="286"/>
+    <n v="29"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="10102"/>
+    <s v="['new', 'asked', 'still', 'stands', 'support', 'joe', 'biden', 'bill', 'clinton', 'defends', 'fake', 'news', 'say', 'whenever', 'around', 'mind', 'clear', 'judgment', 'good', 'top', 'briefs']"/>
+    <n v="0.70960000000000001"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07259EA4-7ED9-44F8-A324-AC3727979E4D}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07259EA4-7ED9-44F8-A324-AC3727979E4D}" name="PivotTable1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0" sortType="ascending">
+      <items count="20">
+        <item x="10"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="11"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item m="1" x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1315,56 +4240,64 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
   </pivotFields>
-  <rowFields count="3">
-    <field x="13"/>
-    <field x="12"/>
+  <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i>
+      <x v="3"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
+    <i>
       <x v="4"/>
     </i>
-    <i r="2">
+    <i>
       <x v="5"/>
     </i>
-    <i r="2">
+    <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -1374,8 +4307,37 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe von Sentiment" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Mittelwert von Sentiment" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1389,9 +4351,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A106699D-D3AB-4934-B8A9-2DDFA0E0A8C3}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A106699D-D3AB-4934-B8A9-2DDFA0E0A8C3}" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1410,8 +4372,6 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="11"/>
@@ -1431,8 +4391,79 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe von Gesamt-Interaktionen" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Summe von Gesamt" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28C351B0-5E0C-49CC-B5E8-B10DDB8E6ED7}" name="PivotTable8" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Mittelwert von Gesamt" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1482,8 +4513,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}" name="Tabelle4" displayName="Tabelle4" ref="B3:M28" totalsRowShown="0">
-  <autoFilter ref="B3:M28" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}" name="Tabelle4" displayName="Tabelle4" ref="B3:M53" totalsRowShown="0">
+  <autoFilter ref="B3:M53" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:M53">
+    <sortCondition ref="B3:B53"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F92759FB-0F32-4E5D-A2BD-030FE002026B}" name="Post-ID"/>
     <tableColumn id="2" xr3:uid="{A46250B6-CB50-49F2-A406-1FCF27A414CE}" name="Text"/>
@@ -1493,9 +4527,7 @@
     <tableColumn id="6" xr3:uid="{CFE9CB48-C935-4766-8449-BC6E1B61ED07}" name="Zitate"/>
     <tableColumn id="7" xr3:uid="{7F968F79-EEF7-4DD2-9089-23850F5F395F}" name="Datum"/>
     <tableColumn id="9" xr3:uid="{4DDA1861-AEF0-4E53-AD99-F2711FA977B3}" name="Medium"/>
-    <tableColumn id="8" xr3:uid="{D691F88F-2706-49EB-93DB-3E4403383063}" name="Gesamt-Interaktionen" dataDxfId="0" dataCellStyle="Eingabe">
-      <calculatedColumnFormula>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{D691F88F-2706-49EB-93DB-3E4403383063}" name="Gesamt" dataDxfId="3" dataCellStyle="Eingabe"/>
     <tableColumn id="10" xr3:uid="{894EA704-6D71-41FC-9F73-324C4AE87736}" name="Cleaned_Text"/>
     <tableColumn id="11" xr3:uid="{3E5F0807-BB39-444D-BC9C-BAF3E381F8D3}" name="Sentiment"/>
     <tableColumn id="12" xr3:uid="{EBB102E3-274A-46E6-854D-D3D2A34760BA}" name="Fear_Words"/>
@@ -1803,7 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B68AD3-818F-460B-B0F1-257795A44F1B}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2822,20 +5854,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943E27FD-C7A3-478C-83D3-F56B0A932CC4}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
@@ -2869,16 +5901,16 @@
         <v>79</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="K3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="26" t="s">
         <v>109</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2907,11 +5939,10 @@
         <v>80</v>
       </c>
       <c r="J4" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>19216</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4">
         <v>-0.5696</v>
@@ -2943,14 +5974,13 @@
         <v>45811</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J5" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>2085</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5">
         <v>-0.58930000000000005</v>
@@ -2964,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>648</v>
@@ -2982,14 +6012,13 @@
         <v>45806</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>789</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6">
         <v>-0.89339999999999997</v>
@@ -3003,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>6873</v>
@@ -3024,11 +6053,10 @@
         <v>80</v>
       </c>
       <c r="J7" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>8912</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>-0.70960000000000001</v>
@@ -3042,7 +6070,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>763</v>
@@ -3060,14 +6088,13 @@
         <v>45811</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>1237</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L8">
         <v>-0.57189999999999996</v>
@@ -3081,7 +6108,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>1711</v>
@@ -3099,14 +6126,13 @@
         <v>45811</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>4641</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9">
         <v>-0.85550000000000004</v>
@@ -3120,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>1069</v>
@@ -3141,11 +6167,10 @@
         <v>72</v>
       </c>
       <c r="J10" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>1223</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L10">
         <v>0.47539999999999999</v>
@@ -3159,7 +6184,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>797</v>
@@ -3180,11 +6205,10 @@
         <v>72</v>
       </c>
       <c r="J11" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>856</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11">
         <v>-0.86319999999999997</v>
@@ -3198,7 +6222,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>205</v>
@@ -3219,11 +6243,10 @@
         <v>80</v>
       </c>
       <c r="J12" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>273</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12">
         <v>-0.74299999999999999</v>
@@ -3237,7 +6260,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>101</v>
@@ -3255,14 +6278,13 @@
         <v>45810</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>250</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13">
         <v>7.7200000000000005E-2</v>
@@ -3276,7 +6298,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>16392</v>
@@ -3294,14 +6316,13 @@
         <v>45809</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>20052</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14">
         <v>0.31819999999999998</v>
@@ -3315,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -3336,11 +6357,10 @@
         <v>80</v>
       </c>
       <c r="J15" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15">
         <v>-2.58E-2</v>
@@ -3354,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3372,14 +6392,13 @@
         <v>45673</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16">
         <v>0.70960000000000001</v>
@@ -3388,12 +6407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3411,14 +6430,13 @@
         <v>45704</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3427,12 +6445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -3450,14 +6468,13 @@
         <v>45811</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18">
         <v>-0.8286</v>
@@ -3466,12 +6483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>24</v>
@@ -3492,11 +6509,10 @@
         <v>72</v>
       </c>
       <c r="J19" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L19">
         <v>-0.98299999999999998</v>
@@ -3505,12 +6521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>48556</v>
@@ -3531,11 +6547,10 @@
         <v>80</v>
       </c>
       <c r="J20" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>57059</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3544,12 +6559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>285024</v>
@@ -3570,11 +6585,10 @@
         <v>72</v>
       </c>
       <c r="J21" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>307358</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21">
         <v>-0.53859999999999997</v>
@@ -3583,12 +6597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>25345</v>
@@ -3609,11 +6623,10 @@
         <v>72</v>
       </c>
       <c r="J22" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>27694</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22">
         <v>-0.44040000000000001</v>
@@ -3622,12 +6635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3648,11 +6661,10 @@
         <v>72</v>
       </c>
       <c r="J23" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L23">
         <v>0.86860000000000004</v>
@@ -3661,12 +6673,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3687,11 +6699,10 @@
         <v>72</v>
       </c>
       <c r="J24" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L24">
         <v>-0.29599999999999999</v>
@@ -3700,12 +6711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3726,11 +6737,10 @@
         <v>72</v>
       </c>
       <c r="J25" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25">
         <v>-0.15310000000000001</v>
@@ -3739,12 +6749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -3765,11 +6775,10 @@
         <v>72</v>
       </c>
       <c r="J26" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L26">
         <v>0.15310000000000001</v>
@@ -3778,12 +6787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3804,11 +6813,10 @@
         <v>72</v>
       </c>
       <c r="J27" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27">
         <v>-0.88090000000000002</v>
@@ -3817,12 +6825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>428</v>
@@ -3843,11 +6851,10 @@
         <v>72</v>
       </c>
       <c r="J28" s="23">
-        <f>SUM(Tabelle4[[#This Row],[Likes]:[Zitate]])</f>
         <v>827</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L28">
         <v>0.2732</v>
@@ -3856,118 +6863,1149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
-        <v>107</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>521</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24">
+        <v>45792</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="30">
+        <v>578</v>
+      </c>
+      <c r="K29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29">
+        <v>-0.56010000000000004</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>3426</v>
+      </c>
+      <c r="E30">
+        <v>823</v>
+      </c>
+      <c r="F30">
+        <v>249</v>
+      </c>
+      <c r="G30">
+        <v>32</v>
+      </c>
+      <c r="H30" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="30">
+        <v>4530</v>
+      </c>
+      <c r="K30" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30">
+        <v>-0.47670000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>SUM(Tabelle4[Gesamt-Interaktionen])/25</f>
-        <v>18105.080000000002</v>
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31">
+        <v>16508</v>
+      </c>
+      <c r="E31">
+        <v>3998</v>
+      </c>
+      <c r="F31">
+        <v>2863</v>
+      </c>
+      <c r="G31">
+        <v>548</v>
+      </c>
+      <c r="H31" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="30">
+        <v>23917</v>
+      </c>
+      <c r="K31" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31">
+        <v>-0.1857</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="30">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>168</v>
+      </c>
+      <c r="L32">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="30">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33">
+        <v>-0.92689999999999995</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="30">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35">
+        <v>274</v>
+      </c>
+      <c r="E35">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="30">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35">
+        <v>-0.25</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>347</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="30">
+        <v>413</v>
+      </c>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36">
+        <v>-0.38179999999999997</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="24">
+        <v>45722</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="30">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37">
+        <v>-0.77829999999999999</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>25538</v>
+      </c>
+      <c r="E38">
+        <v>2101</v>
+      </c>
+      <c r="F38">
+        <v>2547</v>
+      </c>
+      <c r="G38">
+        <v>550</v>
+      </c>
+      <c r="H38" s="24">
+        <v>45779</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="30">
+        <v>30736</v>
+      </c>
+      <c r="K38" t="s">
+        <v>174</v>
+      </c>
+      <c r="L38">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39">
+        <v>103</v>
+      </c>
+      <c r="E39">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="24">
+        <v>45779</v>
+      </c>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="30">
+        <v>135</v>
+      </c>
+      <c r="K39" t="s">
+        <v>175</v>
+      </c>
+      <c r="L39">
+        <v>-0.79300000000000004</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="24">
+        <v>45779</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="30">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L40">
+        <v>-0.4199</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="24">
+        <v>45779</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="30">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41">
+        <v>-0.42149999999999999</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42">
+        <v>17426</v>
+      </c>
+      <c r="E42">
+        <v>7532</v>
+      </c>
+      <c r="F42">
+        <v>600</v>
+      </c>
+      <c r="G42">
+        <v>342</v>
+      </c>
+      <c r="H42" s="24">
+        <v>45777</v>
+      </c>
+      <c r="I42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="30">
+        <v>25900</v>
+      </c>
+      <c r="K42" t="s">
+        <v>178</v>
+      </c>
+      <c r="L42">
+        <v>-0.25</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="24">
+        <v>45751</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="30">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>179</v>
+      </c>
+      <c r="L43">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="24">
+        <v>45751</v>
+      </c>
+      <c r="I44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="30">
+        <v>32</v>
+      </c>
+      <c r="K44" t="s">
+        <v>180</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="24">
+        <v>45751</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="30">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45">
+        <v>-0.87790000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="24">
+        <v>45751</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" s="30">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24">
+        <v>45751</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="30">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>183</v>
+      </c>
+      <c r="L47">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48">
+        <v>76</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>41</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48" s="24">
+        <v>45723</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="30">
+        <v>141</v>
+      </c>
+      <c r="K48" t="s">
+        <v>184</v>
+      </c>
+      <c r="L48">
+        <v>-0.52090000000000003</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="24">
+        <v>45723</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" s="30">
+        <v>8</v>
+      </c>
+      <c r="K49" t="s">
+        <v>185</v>
+      </c>
+      <c r="L49">
+        <v>-0.91180000000000005</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50">
+        <v>979</v>
+      </c>
+      <c r="E50">
+        <v>238</v>
+      </c>
+      <c r="F50">
+        <v>410</v>
+      </c>
+      <c r="G50">
+        <v>62</v>
+      </c>
+      <c r="H50" s="24">
+        <v>45723</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="30">
+        <v>1689</v>
+      </c>
+      <c r="K50" t="s">
+        <v>186</v>
+      </c>
+      <c r="L50">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>344</v>
+      </c>
+      <c r="E51">
+        <v>151</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="24">
+        <v>45814</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="30">
+        <v>517</v>
+      </c>
+      <c r="K51" t="s">
+        <v>187</v>
+      </c>
+      <c r="L51">
+        <v>-0.3765</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52">
+        <v>61423</v>
+      </c>
+      <c r="E52">
+        <v>9116</v>
+      </c>
+      <c r="F52">
+        <v>2256</v>
+      </c>
+      <c r="G52">
+        <v>913</v>
+      </c>
+      <c r="H52" s="24">
+        <v>45814</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="30">
+        <v>73708</v>
+      </c>
+      <c r="K52" t="s">
+        <v>188</v>
+      </c>
+      <c r="L52">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53">
+        <v>8440</v>
+      </c>
+      <c r="E53">
+        <v>1347</v>
+      </c>
+      <c r="F53">
+        <v>286</v>
+      </c>
+      <c r="G53">
+        <v>29</v>
+      </c>
+      <c r="H53" s="24">
+        <v>45814</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J53" s="30">
+        <v>10102</v>
+      </c>
+      <c r="K53" t="s">
+        <v>189</v>
+      </c>
+      <c r="L53">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56">
+        <f>SUM(Tabelle4[Gesamt])/25</f>
+        <v>25018.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F29917-8C26-4F8E-8EC2-31D6ACAC309C}">
-  <dimension ref="A3:D12"/>
+  <dimension ref="A3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>45567</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>45673</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.70960000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>45704</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>45722</v>
+      </c>
+      <c r="B7" s="29">
+        <v>-0.33792499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>45723</v>
+      </c>
+      <c r="B8" s="29">
+        <v>-0.30276666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>45734</v>
+      </c>
+      <c r="B9" s="29">
+        <v>-0.88090000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>45751</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.19503999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>45775</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="D11" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="31">
-        <v>0.2732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="31">
-        <v>0.2732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="31">
-        <v>-7.3397999999999985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="31">
-        <v>-0.17130000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="31">
-        <v>-7.168499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="31">
-        <v>0.15310000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="31">
-        <v>-0.94009999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="31">
-        <v>-6.3814999999999991</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="31">
-        <v>-7.0665999999999993</v>
+      <c r="A12" s="32">
+        <v>45777</v>
+      </c>
+      <c r="B12" s="29">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>45779</v>
+      </c>
+      <c r="B13" s="29">
+        <v>-0.19737500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>45792</v>
+      </c>
+      <c r="B14" s="29">
+        <v>-0.56010000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>45799</v>
+      </c>
+      <c r="B15" s="29">
+        <v>-5.2249999999999935E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>45806</v>
+      </c>
+      <c r="B16" s="29">
+        <v>-0.89339999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>45808</v>
+      </c>
+      <c r="B17" s="29">
+        <v>-2.58E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>45809</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.31819999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>45810</v>
+      </c>
+      <c r="B19" s="29">
+        <v>-0.23069999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>45811</v>
+      </c>
+      <c r="B20" s="29">
+        <v>-0.56711818181818174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>45814</v>
+      </c>
+      <c r="B21" s="29">
+        <v>3.0033333333333356E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="29">
+        <v>-0.22425200000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3980,52 +8018,133 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>0</v>
       </c>
-      <c r="B4" s="31">
-        <v>431740</v>
+      <c r="B4" s="29">
+        <v>578682</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>1</v>
       </c>
-      <c r="B5" s="31">
-        <v>20887</v>
+      <c r="B5" s="29">
+        <v>46787</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="31">
-        <v>452627</v>
+        <v>136</v>
+      </c>
+      <c r="B6" s="29">
+        <v>625469</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6796EDE-711C-4953-BA92-BB6A903EF0FE}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="29">
+        <v>20008.764705882353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="29">
+        <v>7684.9444444444443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="29">
+        <v>9799.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="29">
+        <v>12509.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED72CFCA-DF03-48B2-BD45-75BD3F2FE502}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Medienanalyse/Auswertung KI&Fake News.xlsx
+++ b/Medienanalyse/Auswertung KI&Fake News.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hochschule München\Master\5. Semester\Forschungsprojekte\Ausarbeitung\Forschungsprojekte_Fakenews\Medienanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB72540-A4B8-4FED-B726-67D82BBEFD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C89C5D-715A-46CB-AFB4-784431EAAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Deepfake-Erkennung" sheetId="1" r:id="rId1"/>
+    <sheet name="Deepfake-Erkennung" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Medienanalyse" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot - Sentiment" sheetId="3" r:id="rId3"/>
     <sheet name="Pivot - Fear Words" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4202,7 +4202,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07259EA4-7ED9-44F8-A324-AC3727979E4D}" name="PivotTable1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07259EA4-7ED9-44F8-A324-AC3727979E4D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4351,7 +4351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A106699D-D3AB-4934-B8A9-2DDFA0E0A8C3}" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A106699D-D3AB-4934-B8A9-2DDFA0E0A8C3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4406,7 +4406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28C351B0-5E0C-49CC-B5E8-B10DDB8E6ED7}" name="PivotTable8" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28C351B0-5E0C-49CC-B5E8-B10DDB8E6ED7}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4835,9 +4835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B68AD3-818F-460B-B0F1-257795A44F1B}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5856,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943E27FD-C7A3-478C-83D3-F56B0A932CC4}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Medienanalyse/Auswertung KI&Fake News.xlsx
+++ b/Medienanalyse/Auswertung KI&Fake News.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hochschule München\Master\5. Semester\Forschungsprojekte\Ausarbeitung\Forschungsprojekte_Fakenews\Medienanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C89C5D-715A-46CB-AFB4-784431EAAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EABAB-5665-49DE-87AE-500394AD69AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6B60BFB2-014A-4149-A2A8-DD1EE0A0D36F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Deepfake-Erkennung" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Medienanalyse" sheetId="2" r:id="rId2"/>
-    <sheet name="Pivot - Sentiment" sheetId="3" r:id="rId3"/>
-    <sheet name="Pivot - Fear Words" sheetId="4" r:id="rId4"/>
-    <sheet name="Pivot - Medium" sheetId="5" r:id="rId5"/>
-    <sheet name="Sentiment - Engagement" sheetId="6" r:id="rId6"/>
+    <sheet name="Medienanalyse" sheetId="2" r:id="rId1"/>
+    <sheet name="Pivot - Sentiment" sheetId="3" r:id="rId2"/>
+    <sheet name="Pivot - Fear Words" sheetId="4" r:id="rId3"/>
+    <sheet name="Pivot - Medium" sheetId="5" r:id="rId4"/>
+    <sheet name="Sentiment - Engagement" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,217 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
-  <si>
-    <t>MesoNet</t>
-  </si>
-  <si>
-    <t>Deepfake-Erkennung - Visuell</t>
-  </si>
-  <si>
-    <t>SightEngine</t>
-  </si>
-  <si>
-    <t>Bild 2</t>
-  </si>
-  <si>
-    <t>Bild 3</t>
-  </si>
-  <si>
-    <t>Bild 4</t>
-  </si>
-  <si>
-    <t>Bild 5</t>
-  </si>
-  <si>
-    <t>Bild 6</t>
-  </si>
-  <si>
-    <t>Bild 7</t>
-  </si>
-  <si>
-    <t>Bild 8</t>
-  </si>
-  <si>
-    <t>Bild 9</t>
-  </si>
-  <si>
-    <t>Bild 10</t>
-  </si>
-  <si>
-    <t>Bild 11</t>
-  </si>
-  <si>
-    <t>Bild 12</t>
-  </si>
-  <si>
-    <t>Bild 1</t>
-  </si>
-  <si>
-    <t>Quelle</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Datei</t>
-  </si>
-  <si>
-    <t>RunwayML</t>
-  </si>
-  <si>
-    <t>DALL-E 3 (ChatGPT)</t>
-  </si>
-  <si>
-    <t>Legende:</t>
-  </si>
-  <si>
-    <t>Score ≤ 0,5: Echt</t>
-  </si>
-  <si>
-    <t>Score &gt; 0,5: Fake</t>
-  </si>
-  <si>
-    <t>GPT-4o erkannt</t>
-  </si>
-  <si>
-    <t>Notiz</t>
-  </si>
-  <si>
-    <t>Score ≤ 0,5: Fake</t>
-  </si>
-  <si>
-    <t>Score &gt; 0,5: Echt</t>
-  </si>
-  <si>
-    <t>Deepfake-Erkennung - Text</t>
-  </si>
-  <si>
-    <t>GPT-4 (ChatGPT)</t>
-  </si>
-  <si>
-    <t>Text 1</t>
-  </si>
-  <si>
-    <t>Text 2</t>
-  </si>
-  <si>
-    <t>Text 3</t>
-  </si>
-  <si>
-    <t>Text 4</t>
-  </si>
-  <si>
-    <t>Text 5</t>
-  </si>
-  <si>
-    <t>Text 6</t>
-  </si>
-  <si>
-    <t>Text 7</t>
-  </si>
-  <si>
-    <t>Text 8</t>
-  </si>
-  <si>
-    <t>Text 9</t>
-  </si>
-  <si>
-    <t>Text 10</t>
-  </si>
-  <si>
-    <t>Text 11</t>
-  </si>
-  <si>
-    <t>Text 12</t>
-  </si>
-  <si>
-    <t>DetectGPT</t>
-  </si>
-  <si>
-    <t>Grok 3</t>
-  </si>
-  <si>
-    <t>Deepfake-Erkennung - Audio</t>
-  </si>
-  <si>
-    <t>Deepfake Total</t>
-  </si>
-  <si>
-    <t>Audio 1</t>
-  </si>
-  <si>
-    <t>Audio 2</t>
-  </si>
-  <si>
-    <t>Audio 3</t>
-  </si>
-  <si>
-    <t>Audio 4</t>
-  </si>
-  <si>
-    <t>Audio 5</t>
-  </si>
-  <si>
-    <t>Audio 6</t>
-  </si>
-  <si>
-    <t>Audio 7</t>
-  </si>
-  <si>
-    <t>Audio 8</t>
-  </si>
-  <si>
-    <t>Audio 9</t>
-  </si>
-  <si>
-    <t>Audio 10</t>
-  </si>
-  <si>
-    <t>Audio 11</t>
-  </si>
-  <si>
-    <t>Audio 12</t>
-  </si>
-  <si>
-    <t>ElevenLabs</t>
-  </si>
-  <si>
-    <t>Durchschnitt (Gesamt) - Accuracy</t>
-  </si>
-  <si>
-    <t>Durchschnitt (Grok 3) - Accuracy</t>
-  </si>
-  <si>
-    <t>Durchschnitt (GPT-4) - Accuracy</t>
-  </si>
-  <si>
-    <t>Durchschnitt (RunwayML) - Accuracy</t>
-  </si>
-  <si>
-    <t>Durchschnitt (DALL-E 3) - Accuracy</t>
-  </si>
-  <si>
-    <t>Wikimedia</t>
-  </si>
-  <si>
-    <t>Face Manipulation</t>
-  </si>
-  <si>
-    <t>GenAI</t>
-  </si>
-  <si>
-    <t>Visual - Real</t>
-  </si>
-  <si>
-    <t>Audio - Real</t>
-  </si>
-  <si>
-    <t>Text - Real</t>
-  </si>
-  <si>
-    <t>Bachelorarbeit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>Medienanalyse (Nitter.net)</t>
   </si>
@@ -637,10 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,51 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -714,24 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +477,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,22 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -786,23 +497,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -827,43 +526,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -878,43 +540,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -922,24 +559,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="60 % - Akzent1" xfId="5" builtinId="32"/>
-    <cellStyle name="Berechnung" xfId="4" builtinId="22"/>
-    <cellStyle name="Eingabe" xfId="6" builtinId="20"/>
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
+    <cellStyle name="60 % - Akzent1" xfId="1" builtinId="32"/>
+    <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -4477,42 +4110,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6246934B-E0DD-4FE9-82F7-580034BD6BC4}" name="MesoNet" displayName="MesoNet" ref="B3:D15" totalsRowShown="0">
-  <autoFilter ref="B3:D15" xr:uid="{6246934B-E0DD-4FE9-82F7-580034BD6BC4}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C8424DFE-9638-4CAB-8127-6C2F80CDE38F}" name="Datei"/>
-    <tableColumn id="2" xr3:uid="{7D41E7C5-6A10-49C2-97C6-E1C4031C2ED7}" name="Quelle"/>
-    <tableColumn id="3" xr3:uid="{4A518DDE-BBB6-4095-9F52-A80F2A640E73}" name="Score" dataCellStyle="Schlecht"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D9AD654-26F9-49B9-A445-D272B4618D56}" name="MesoNet3" displayName="MesoNet3" ref="B45:D57" totalsRowShown="0">
-  <autoFilter ref="B45:D57" xr:uid="{6D9AD654-26F9-49B9-A445-D272B4618D56}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B6C8F093-CA09-409C-B6CA-BD6DA2A924A8}" name="Datei"/>
-    <tableColumn id="2" xr3:uid="{97DEC2F5-FA28-480E-9E4D-9C789FE64562}" name="Quelle"/>
-    <tableColumn id="3" xr3:uid="{9B2CA8E8-85B1-4C97-8EB0-8B8FE306D125}" name="Score"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E4B8F3C-BA6A-4060-A894-9D700F39A24F}" name="MesoNet34" displayName="MesoNet34" ref="B66:D78" totalsRowShown="0">
-  <autoFilter ref="B66:D78" xr:uid="{9E4B8F3C-BA6A-4060-A894-9D700F39A24F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0AF7AA81-7126-42EC-8145-C807A954C3AB}" name="Datei"/>
-    <tableColumn id="2" xr3:uid="{B1ABFD8B-5BC8-498D-87EC-1FF2AD7B6F37}" name="Quelle"/>
-    <tableColumn id="3" xr3:uid="{2E479E3E-71A3-4F31-BCA5-5648FE94F399}" name="Score" dataCellStyle="Gut"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}" name="Tabelle4" displayName="Tabelle4" ref="B3:M53" totalsRowShown="0">
   <autoFilter ref="B3:M53" xr:uid="{627F338B-A832-4190-9BA2-3E64B2A4CAD4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:M53">
@@ -4832,1025 +4429,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B68AD3-818F-460B-B0F1-257795A44F1B}">
-  <dimension ref="A1:N80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.9889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.97660000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.99919999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.92859999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.99850000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.99950000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.99939999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.99990000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.99970000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="13">
-        <f>AVERAGE(D4:D15)</f>
-        <v>0.99020000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="13">
-        <f>AVERAGE(D4:D8,D15)</f>
-        <v>0.99276666666666669</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="13">
-        <f>AVERAGE(D9:D14)</f>
-        <v>0.98763333333333325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="G24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="G25" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0.13</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="K26" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="K27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>63</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="15">
-        <f>AVERAGE(M25:M30)</f>
-        <v>3.6666666666666674E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0.99</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="16">
-        <f>AVERAGE(D24:D35)</f>
-        <v>0.54749999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="13">
-        <f>AVERAGE(D24:D28,D35)</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="15">
-        <f>AVERAGE(D29:D34)</f>
-        <v>0.9900000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A43" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0.38</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M47" s="18">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="18">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M49" s="18">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M50" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M51" s="18">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M52" s="18">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>58</v>
-      </c>
-      <c r="M54" s="15">
-        <f>AVERAGE(M47:M52)</f>
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="16">
-        <f>AVERAGE(D46:D57)</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="13">
-        <f>AVERAGE(D46:D51)</f>
-        <v>0.89333333333333342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="15">
-        <f>AVERAGE(D52:D57)</f>
-        <v>2.3333333333333331E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A64" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M68" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L69" t="s">
-        <v>63</v>
-      </c>
-      <c r="M69" s="18">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M70" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L71" t="s">
-        <v>63</v>
-      </c>
-      <c r="M71" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" t="s">
-        <v>57</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M72" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L73" t="s">
-        <v>63</v>
-      </c>
-      <c r="M73" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="J75" t="s">
-        <v>58</v>
-      </c>
-      <c r="M75" s="15">
-        <f>AVERAGE(M68:M73)</f>
-        <v>1.4499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.53200000000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="15">
-        <f>AVERAGE(D67:D78)</f>
-        <v>0.93900000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943E27FD-C7A3-478C-83D3-F56B0A932CC4}">
   <dimension ref="A1:M56"/>
   <sheetViews>
@@ -5869,46 +4447,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>70</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5916,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>14676</v>
@@ -5930,17 +4508,17 @@
       <c r="G4">
         <v>334</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="3">
         <v>45811</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="23">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
         <v>19216</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>-0.5696</v>
@@ -5954,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>964</v>
@@ -5968,17 +4546,17 @@
       <c r="G5">
         <v>165</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="3">
         <v>45811</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="23">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
         <v>2085</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>-0.58930000000000005</v>
@@ -5992,7 +4570,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>648</v>
@@ -6006,17 +4584,17 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="3">
         <v>45806</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="23">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2">
         <v>789</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>-0.89339999999999997</v>
@@ -6030,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>6873</v>
@@ -6044,17 +4622,17 @@
       <c r="G7">
         <v>174</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="3">
         <v>45811</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="23">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <v>8912</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <v>-0.70960000000000001</v>
@@ -6068,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>763</v>
@@ -6082,17 +4660,17 @@
       <c r="G8">
         <v>14</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="3">
         <v>45811</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="23">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
         <v>1237</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="L8">
         <v>-0.57189999999999996</v>
@@ -6106,7 +4684,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1711</v>
@@ -6120,17 +4698,17 @@
       <c r="G9">
         <v>687</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="3">
         <v>45811</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="23">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2">
         <v>4641</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="L9">
         <v>-0.85550000000000004</v>
@@ -6144,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>1069</v>
@@ -6158,17 +4736,17 @@
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="3">
         <v>45811</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="23">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
         <v>1223</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="L10">
         <v>0.47539999999999999</v>
@@ -6182,7 +4760,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>797</v>
@@ -6196,17 +4774,17 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="3">
         <v>45811</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="23">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
         <v>856</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="L11">
         <v>-0.86319999999999997</v>
@@ -6220,7 +4798,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>205</v>
@@ -6234,17 +4812,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="3">
         <v>45811</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="23">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
         <v>273</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="L12">
         <v>-0.74299999999999999</v>
@@ -6258,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>101</v>
@@ -6272,17 +4850,17 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="3">
         <v>45810</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="23">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
         <v>250</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="L13">
         <v>7.7200000000000005E-2</v>
@@ -6296,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>16392</v>
@@ -6310,17 +4888,17 @@
       <c r="G14">
         <v>1011</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="3">
         <v>45809</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="23">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
         <v>20052</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L14">
         <v>0.31819999999999998</v>
@@ -6334,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -6348,17 +4926,17 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="3">
         <v>45808</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="23">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="L15">
         <v>-2.58E-2</v>
@@ -6372,7 +4950,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6386,17 +4964,17 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="3">
         <v>45673</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="23">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="L16">
         <v>0.70960000000000001</v>
@@ -6410,7 +4988,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6424,17 +5002,17 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="3">
         <v>45704</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="23">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -6448,7 +5026,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -6462,17 +5040,17 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="3">
         <v>45811</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="23">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="L18">
         <v>-0.8286</v>
@@ -6486,7 +5064,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>24</v>
@@ -6500,17 +5078,17 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="3">
         <v>45811</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="23">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="L19">
         <v>-0.98299999999999998</v>
@@ -6524,7 +5102,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>48556</v>
@@ -6538,17 +5116,17 @@
       <c r="G20">
         <v>1195</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="3">
         <v>45811</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="23">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <v>57059</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -6562,7 +5140,7 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>285024</v>
@@ -6576,17 +5154,17 @@
       <c r="G21">
         <v>218</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="3">
         <v>45810</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="23">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
         <v>307358</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="L21">
         <v>-0.53859999999999997</v>
@@ -6600,7 +5178,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>25345</v>
@@ -6614,17 +5192,17 @@
       <c r="G22">
         <v>109</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="3">
         <v>45799</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="23">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
         <v>27694</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="L22">
         <v>-0.44040000000000001</v>
@@ -6638,7 +5216,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -6652,17 +5230,17 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="3">
         <v>45799</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="L23">
         <v>0.86860000000000004</v>
@@ -6676,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6690,17 +5268,17 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="3">
         <v>45799</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="23">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="L24">
         <v>-0.29599999999999999</v>
@@ -6714,7 +5292,7 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6728,17 +5306,17 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="3">
         <v>45799</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="23">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="L25">
         <v>-0.15310000000000001</v>
@@ -6752,7 +5330,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -6766,17 +5344,17 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="3">
         <v>45775</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="23">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
         <v>37</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="L26">
         <v>0.15310000000000001</v>
@@ -6790,7 +5368,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -6804,17 +5382,17 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="3">
         <v>45734</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="23">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="L27">
         <v>-0.88090000000000002</v>
@@ -6828,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>428</v>
@@ -6842,17 +5420,17 @@
       <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="3">
         <v>45567</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="23">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
         <v>827</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="L28">
         <v>0.2732</v>
@@ -6866,7 +5444,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>521</v>
@@ -6880,17 +5458,17 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="3">
         <v>45792</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="30">
+        <v>13</v>
+      </c>
+      <c r="J29" s="9">
         <v>578</v>
       </c>
       <c r="K29" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="L29">
         <v>-0.56010000000000004</v>
@@ -6904,7 +5482,7 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>3426</v>
@@ -6918,17 +5496,17 @@
       <c r="G30">
         <v>32</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="3">
         <v>45722</v>
       </c>
       <c r="I30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="30">
+        <v>13</v>
+      </c>
+      <c r="J30" s="9">
         <v>4530</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L30">
         <v>-0.47670000000000001</v>
@@ -6942,7 +5520,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>16508</v>
@@ -6956,17 +5534,17 @@
       <c r="G31">
         <v>548</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="3">
         <v>45722</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="30">
+        <v>10</v>
+      </c>
+      <c r="J31" s="9">
         <v>23917</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="L31">
         <v>-0.1857</v>
@@ -6980,7 +5558,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6994,17 +5572,17 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="3">
         <v>45722</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="30">
+        <v>10</v>
+      </c>
+      <c r="J32" s="9">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="L32">
         <v>0.29599999999999999</v>
@@ -7018,7 +5596,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -7032,17 +5610,17 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="3">
         <v>45722</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="30">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9">
         <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="L33">
         <v>-0.92689999999999995</v>
@@ -7056,7 +5634,7 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -7070,17 +5648,17 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="3">
         <v>45722</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="30">
+        <v>2</v>
+      </c>
+      <c r="J34" s="9">
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -7094,7 +5672,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>274</v>
@@ -7108,17 +5686,17 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="3">
         <v>45722</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="30">
+        <v>10</v>
+      </c>
+      <c r="J35" s="9">
         <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="L35">
         <v>-0.25</v>
@@ -7132,7 +5710,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="D36">
         <v>347</v>
@@ -7146,17 +5724,17 @@
       <c r="G36">
         <v>6</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="3">
         <v>45722</v>
       </c>
       <c r="I36" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="30">
+        <v>10</v>
+      </c>
+      <c r="J36" s="9">
         <v>413</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="L36">
         <v>-0.38179999999999997</v>
@@ -7170,7 +5748,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D37">
         <v>20</v>
@@ -7184,17 +5762,17 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="3">
         <v>45722</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="30">
+        <v>13</v>
+      </c>
+      <c r="J37" s="9">
         <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="L37">
         <v>-0.77829999999999999</v>
@@ -7207,8 +5785,8 @@
       <c r="B38">
         <v>35</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>148</v>
+      <c r="C38" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D38">
         <v>25538</v>
@@ -7222,17 +5800,17 @@
       <c r="G38">
         <v>550</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="3">
         <v>45779</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="30">
+        <v>13</v>
+      </c>
+      <c r="J38" s="9">
         <v>30736</v>
       </c>
       <c r="K38" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="L38">
         <v>0.84489999999999998</v>
@@ -7246,7 +5824,7 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <v>103</v>
@@ -7260,17 +5838,17 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="3">
         <v>45779</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" s="30">
+        <v>10</v>
+      </c>
+      <c r="J39" s="9">
         <v>135</v>
       </c>
       <c r="K39" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="L39">
         <v>-0.79300000000000004</v>
@@ -7284,7 +5862,7 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -7298,17 +5876,17 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="3">
         <v>45779</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="30">
+        <v>13</v>
+      </c>
+      <c r="J40" s="9">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="L40">
         <v>-0.4199</v>
@@ -7322,7 +5900,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -7336,17 +5914,17 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="3">
         <v>45779</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="30">
+        <v>2</v>
+      </c>
+      <c r="J41" s="9">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="L41">
         <v>-0.42149999999999999</v>
@@ -7360,7 +5938,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <v>17426</v>
@@ -7374,17 +5952,17 @@
       <c r="G42">
         <v>342</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="3">
         <v>45777</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="30">
+        <v>10</v>
+      </c>
+      <c r="J42" s="9">
         <v>25900</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="L42">
         <v>-0.25</v>
@@ -7398,7 +5976,7 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -7412,17 +5990,17 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="3">
         <v>45751</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="30">
+        <v>2</v>
+      </c>
+      <c r="J43" s="9">
         <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="L43">
         <v>0.79869999999999997</v>
@@ -7436,7 +6014,7 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>29</v>
@@ -7450,17 +6028,17 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="3">
         <v>45751</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="30">
+        <v>10</v>
+      </c>
+      <c r="J44" s="9">
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -7474,7 +6052,7 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>22</v>
@@ -7488,17 +6066,17 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="3">
         <v>45751</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="30">
+        <v>13</v>
+      </c>
+      <c r="J45" s="9">
         <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="L45">
         <v>-0.87790000000000001</v>
@@ -7512,7 +6090,7 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>23</v>
@@ -7526,17 +6104,17 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="3">
         <v>45751</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" s="30">
+        <v>13</v>
+      </c>
+      <c r="J46" s="9">
         <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="L46">
         <v>0.47349999999999998</v>
@@ -7550,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -7564,17 +6142,17 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="3">
         <v>45751</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="30">
+        <v>2</v>
+      </c>
+      <c r="J47" s="9">
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="L47">
         <v>0.58089999999999997</v>
@@ -7588,7 +6166,7 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="D48">
         <v>76</v>
@@ -7602,17 +6180,17 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="3">
         <v>45723</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="30">
+        <v>10</v>
+      </c>
+      <c r="J48" s="9">
         <v>141</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="L48">
         <v>-0.52090000000000003</v>
@@ -7626,7 +6204,7 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -7640,17 +6218,17 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="3">
         <v>45723</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="30">
+        <v>13</v>
+      </c>
+      <c r="J49" s="9">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="L49">
         <v>-0.91180000000000005</v>
@@ -7664,7 +6242,7 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D50">
         <v>979</v>
@@ -7678,17 +6256,17 @@
       <c r="G50">
         <v>62</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="3">
         <v>45723</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="30">
+        <v>13</v>
+      </c>
+      <c r="J50" s="9">
         <v>1689</v>
       </c>
       <c r="K50" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="L50">
         <v>0.52439999999999998</v>
@@ -7702,7 +6280,7 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D51">
         <v>344</v>
@@ -7716,17 +6294,17 @@
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="3">
         <v>45814</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="30">
+        <v>10</v>
+      </c>
+      <c r="J51" s="9">
         <v>517</v>
       </c>
       <c r="K51" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="L51">
         <v>-0.3765</v>
@@ -7739,8 +6317,8 @@
       <c r="B52">
         <v>49</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>162</v>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D52">
         <v>61423</v>
@@ -7754,17 +6332,17 @@
       <c r="G52">
         <v>913</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="3">
         <v>45814</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-      <c r="J52" s="30">
+        <v>13</v>
+      </c>
+      <c r="J52" s="9">
         <v>73708</v>
       </c>
       <c r="K52" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="L52">
         <v>-0.24299999999999999</v>
@@ -7778,7 +6356,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <v>8440</v>
@@ -7792,17 +6370,17 @@
       <c r="G53">
         <v>29</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="3">
         <v>45814</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" s="30">
+        <v>10</v>
+      </c>
+      <c r="J53" s="9">
         <v>10102</v>
       </c>
       <c r="K53" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="L53">
         <v>0.70960000000000001</v>
@@ -7812,8 +6390,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="25" t="s">
-        <v>106</v>
+      <c r="A56" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B56">
         <f>SUM(Tabelle4[Gesamt])/25</f>
@@ -7829,7 +6407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F29917-8C26-4F8E-8EC2-31D6ACAC309C}">
   <dimension ref="A3:D22"/>
   <sheetViews>
@@ -7844,165 +6422,165 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>135</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
+      <c r="A4" s="11">
         <v>45567</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="8">
         <v>0.2732</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="11">
         <v>45673</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="8">
         <v>0.70960000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="11">
         <v>45704</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="11">
         <v>45722</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="8">
         <v>-0.33792499999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="11">
         <v>45723</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="8">
         <v>-0.30276666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="12">
         <v>45734</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="8">
         <v>-0.88090000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="11">
         <v>45751</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="8">
         <v>0.19503999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="11">
         <v>45775</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="8">
         <v>0.15310000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="11">
         <v>45777</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="8">
         <v>-0.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="11">
         <v>45779</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="8">
         <v>-0.19737500000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="11">
         <v>45792</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="8">
         <v>-0.56010000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="11">
         <v>45799</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="8">
         <v>-5.2249999999999935E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="12">
         <v>45806</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="8">
         <v>-0.89339999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="11">
         <v>45808</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="8">
         <v>-2.58E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="11">
         <v>45809</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="8">
         <v>0.31819999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="11">
         <v>45810</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="8">
         <v>-0.23069999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="12">
         <v>45811</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="8">
         <v>-0.56711818181818174</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="11">
         <v>45814</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="8">
         <v>3.0033333333333356E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="29">
+      <c r="A22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8">
         <v>-0.22425200000000003</v>
       </c>
     </row>
@@ -8011,7 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D916DA07-F74A-455F-94FE-FFBB1470B6C4}">
   <dimension ref="A3:D6"/>
   <sheetViews>
@@ -8027,37 +6605,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>135</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>0</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>578682</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="8">
         <v>46787</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8">
         <v>625469</v>
       </c>
     </row>
@@ -8066,7 +6644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6796EDE-711C-4953-BA92-BB6A903EF0FE}">
   <dimension ref="A3:B7"/>
   <sheetViews>
@@ -8081,42 +6659,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>135</v>
+      <c r="A3" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
         <v>20008.764705882353</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
         <v>7684.9444444444443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
         <v>9799.4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="8">
         <v>12509.38</v>
       </c>
     </row>
@@ -8126,7 +6704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED72CFCA-DF03-48B2-BD45-75BD3F2FE502}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -8138,7 +6716,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
